--- a/Excel Files/Ebola_Liberia_2014.xlsx
+++ b/Excel Files/Ebola_Liberia_2014.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2449,11 +2449,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1551929680"/>
-        <c:axId val="1551925328"/>
+        <c:axId val="532344992"/>
+        <c:axId val="532348800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1551929680"/>
+        <c:axId val="532344992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,12 +2510,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1551925328"/>
+        <c:crossAx val="532348800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1551925328"/>
+        <c:axId val="532348800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2572,7 +2572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1551929680"/>
+        <c:crossAx val="532344992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3807,25 +3807,25 @@
                   <c:v>1848</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1887</c:v>
+                  <c:v>1888</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1927</c:v>
+                  <c:v>1928</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1968</c:v>
+                  <c:v>1969</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2052</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2095</c:v>
+                  <c:v>2096</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2138</c:v>
+                  <c:v>2139</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2183</c:v>
@@ -3834,403 +3834,403 @@
                   <c:v>2228</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2273</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2319</c:v>
+                  <c:v>2320</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2366</c:v>
+                  <c:v>2367</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2414</c:v>
+                  <c:v>2415</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2462</c:v>
+                  <c:v>2463</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2511</c:v>
+                  <c:v>2512</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2561</c:v>
+                  <c:v>2562</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2611</c:v>
+                  <c:v>2612</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2662</c:v>
+                  <c:v>2663</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2713</c:v>
+                  <c:v>2715</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2766</c:v>
+                  <c:v>2767</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2819</c:v>
+                  <c:v>2820</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2872</c:v>
+                  <c:v>2874</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2926</c:v>
+                  <c:v>2928</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2981</c:v>
+                  <c:v>2983</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3037</c:v>
+                  <c:v>3038</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3093</c:v>
+                  <c:v>3094</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3149</c:v>
+                  <c:v>3151</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3207</c:v>
+                  <c:v>3208</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3265</c:v>
+                  <c:v>3266</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3323</c:v>
+                  <c:v>3325</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3382</c:v>
+                  <c:v>3384</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3442</c:v>
+                  <c:v>3443</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3502</c:v>
+                  <c:v>3503</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3562</c:v>
+                  <c:v>3564</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3623</c:v>
+                  <c:v>3625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3685</c:v>
+                  <c:v>3687</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3747</c:v>
+                  <c:v>3749</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3810</c:v>
+                  <c:v>3812</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3873</c:v>
+                  <c:v>3875</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3936</c:v>
+                  <c:v>3939</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4000</c:v>
+                  <c:v>4003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4064</c:v>
+                  <c:v>4067</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4129</c:v>
+                  <c:v>4132</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4194</c:v>
+                  <c:v>4197</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4260</c:v>
+                  <c:v>4263</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4325</c:v>
+                  <c:v>4328</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4392</c:v>
+                  <c:v>4395</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4458</c:v>
+                  <c:v>4461</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4525</c:v>
+                  <c:v>4528</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4592</c:v>
+                  <c:v>4595</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4659</c:v>
+                  <c:v>4662</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4726</c:v>
+                  <c:v>4730</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4794</c:v>
+                  <c:v>4798</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4862</c:v>
+                  <c:v>4865</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4930</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4998</c:v>
+                  <c:v>5002</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5066</c:v>
+                  <c:v>5070</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5134</c:v>
+                  <c:v>5138</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5203</c:v>
+                  <c:v>5207</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5271</c:v>
+                  <c:v>5275</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5340</c:v>
+                  <c:v>5344</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5408</c:v>
+                  <c:v>5412</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5477</c:v>
+                  <c:v>5480</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5545</c:v>
+                  <c:v>5549</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5613</c:v>
+                  <c:v>5617</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5682</c:v>
+                  <c:v>5685</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5750</c:v>
+                  <c:v>5753</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5818</c:v>
+                  <c:v>5821</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5886</c:v>
+                  <c:v>5889</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5953</c:v>
+                  <c:v>5957</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6021</c:v>
+                  <c:v>6024</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6088</c:v>
+                  <c:v>6092</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6155</c:v>
+                  <c:v>6159</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6221</c:v>
+                  <c:v>6225</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6288</c:v>
+                  <c:v>6292</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6354</c:v>
+                  <c:v>6358</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6419</c:v>
+                  <c:v>6424</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6485</c:v>
+                  <c:v>6489</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6550</c:v>
+                  <c:v>6554</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6614</c:v>
+                  <c:v>6619</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6679</c:v>
+                  <c:v>6683</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6742</c:v>
+                  <c:v>6747</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6806</c:v>
+                  <c:v>6810</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6869</c:v>
+                  <c:v>6873</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6931</c:v>
+                  <c:v>6936</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6993</c:v>
+                  <c:v>6998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7055</c:v>
+                  <c:v>7059</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>7116</c:v>
+                  <c:v>7121</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7176</c:v>
+                  <c:v>7181</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7236</c:v>
+                  <c:v>7241</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>7296</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>7354</c:v>
+                  <c:v>7359</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7413</c:v>
+                  <c:v>7418</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7470</c:v>
+                  <c:v>7475</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>7528</c:v>
+                  <c:v>7532</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7584</c:v>
+                  <c:v>7589</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7640</c:v>
+                  <c:v>7645</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7695</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7750</c:v>
+                  <c:v>7755</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7804</c:v>
+                  <c:v>7809</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7858</c:v>
+                  <c:v>7862</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7910</c:v>
+                  <c:v>7915</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7963</c:v>
+                  <c:v>7967</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>8014</c:v>
+                  <c:v>8019</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>8065</c:v>
+                  <c:v>8069</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>8115</c:v>
+                  <c:v>8120</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8165</c:v>
+                  <c:v>8169</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>8213</c:v>
+                  <c:v>8218</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>8262</c:v>
+                  <c:v>8266</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>8309</c:v>
+                  <c:v>8313</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8356</c:v>
+                  <c:v>8360</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8402</c:v>
+                  <c:v>8406</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8447</c:v>
+                  <c:v>8451</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>8492</c:v>
+                  <c:v>8496</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>8536</c:v>
+                  <c:v>8540</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>8580</c:v>
+                  <c:v>8584</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>8622</c:v>
+                  <c:v>8626</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>8665</c:v>
+                  <c:v>8668</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8706</c:v>
+                  <c:v>8710</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8747</c:v>
+                  <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8787</c:v>
+                  <c:v>8790</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8826</c:v>
+                  <c:v>8830</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8865</c:v>
+                  <c:v>8869</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>8903</c:v>
+                  <c:v>8907</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8940</c:v>
+                  <c:v>8944</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>8977</c:v>
+                  <c:v>8981</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>9013</c:v>
+                  <c:v>9017</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>9049</c:v>
+                  <c:v>9052</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>9084</c:v>
+                  <c:v>9087</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>9118</c:v>
+                  <c:v>9121</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>9152</c:v>
+                  <c:v>9155</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>9185</c:v>
+                  <c:v>9188</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>9218</c:v>
+                  <c:v>9220</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>9250</c:v>
+                  <c:v>9252</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>9281</c:v>
+                  <c:v>9283</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>9312</c:v>
+                  <c:v>9314</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>9342</c:v>
+                  <c:v>9344</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>9372</c:v>
+                  <c:v>9374</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>9401</c:v>
+                  <c:v>9402</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>9430</c:v>
+                  <c:v>9431</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>9458</c:v>
+                  <c:v>9459</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>9485</c:v>
+                  <c:v>9486</c:v>
                 </c:pt>
                 <c:pt idx="155">
                   <c:v>9512</c:v>
@@ -4239,91 +4239,91 @@
                   <c:v>9539</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>9565</c:v>
+                  <c:v>9564</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>9590</c:v>
+                  <c:v>9589</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>9615</c:v>
+                  <c:v>9614</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>9639</c:v>
+                  <c:v>9638</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>9663</c:v>
+                  <c:v>9662</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>9686</c:v>
+                  <c:v>9685</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>9709</c:v>
+                  <c:v>9707</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>9731</c:v>
+                  <c:v>9730</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>9753</c:v>
+                  <c:v>9751</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>9774</c:v>
+                  <c:v>9773</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>9795</c:v>
+                  <c:v>9793</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>9816</c:v>
+                  <c:v>9814</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>9836</c:v>
+                  <c:v>9834</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>9855</c:v>
+                  <c:v>9853</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>9874</c:v>
+                  <c:v>9872</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>9893</c:v>
+                  <c:v>9891</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>9911</c:v>
+                  <c:v>9909</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>9929</c:v>
+                  <c:v>9927</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>9946</c:v>
+                  <c:v>9944</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>9963</c:v>
+                  <c:v>9962</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>9980</c:v>
+                  <c:v>9978</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>9996</c:v>
+                  <c:v>9995</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>10012</c:v>
+                  <c:v>10011</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>10027</c:v>
+                  <c:v>10026</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>10042</c:v>
+                  <c:v>10041</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>10057</c:v>
+                  <c:v>10056</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>10072</c:v>
+                  <c:v>10071</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>10086</c:v>
+                  <c:v>10085</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>10100</c:v>
+                  <c:v>10099</c:v>
                 </c:pt>
                 <c:pt idx="186">
                   <c:v>10113</c:v>
@@ -4371,103 +4371,103 @@
                   <c:v>10274</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>10284</c:v>
+                  <c:v>10283</c:v>
                 </c:pt>
                 <c:pt idx="202">
                   <c:v>10293</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>10303</c:v>
+                  <c:v>10302</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>10312</c:v>
+                  <c:v>10311</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>10320</c:v>
+                  <c:v>10319</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>10329</c:v>
+                  <c:v>10328</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>10337</c:v>
+                  <c:v>10336</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>10346</c:v>
+                  <c:v>10344</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>10354</c:v>
+                  <c:v>10352</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>10361</c:v>
+                  <c:v>10360</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>10369</c:v>
+                  <c:v>10368</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>10376</c:v>
+                  <c:v>10375</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>10384</c:v>
+                  <c:v>10382</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>10391</c:v>
+                  <c:v>10389</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>10398</c:v>
+                  <c:v>10396</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>10404</c:v>
+                  <c:v>10403</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>10411</c:v>
+                  <c:v>10409</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>10417</c:v>
+                  <c:v>10415</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>10423</c:v>
+                  <c:v>10422</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>10429</c:v>
+                  <c:v>10428</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>10435</c:v>
+                  <c:v>10434</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>10441</c:v>
+                  <c:v>10439</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>10446</c:v>
+                  <c:v>10445</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>10452</c:v>
+                  <c:v>10451</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>10457</c:v>
+                  <c:v>10456</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>10462</c:v>
+                  <c:v>10461</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>10467</c:v>
+                  <c:v>10466</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>10472</c:v>
+                  <c:v>10471</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>10477</c:v>
+                  <c:v>10476</c:v>
                 </c:pt>
                 <c:pt idx="230">
                   <c:v>10481</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>10486</c:v>
+                  <c:v>10485</c:v>
                 </c:pt>
                 <c:pt idx="232">
                   <c:v>10490</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>10495</c:v>
+                  <c:v>10494</c:v>
                 </c:pt>
                 <c:pt idx="234">
                   <c:v>10499</c:v>
@@ -4482,7 +4482,7 @@
                   <c:v>10511</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>10514</c:v>
+                  <c:v>10515</c:v>
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>10518</c:v>
@@ -4491,13 +4491,13 @@
                   <c:v>10522</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>10525</c:v>
+                  <c:v>10526</c:v>
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>10529</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>10532</c:v>
+                  <c:v>10533</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>10536</c:v>
@@ -4509,13 +4509,13 @@
                   <c:v>10542</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>10545</c:v>
+                  <c:v>10546</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>10548</c:v>
+                  <c:v>10549</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>10551</c:v>
+                  <c:v>10552</c:v>
                 </c:pt>
                 <c:pt idx="250">
                   <c:v>10554</c:v>
@@ -4545,10 +4545,10 @@
                   <c:v>10575</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>10578</c:v>
+                  <c:v>10577</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>10580</c:v>
+                  <c:v>10579</c:v>
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>10582</c:v>
@@ -4572,37 +4572,37 @@
                   <c:v>10594</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>10596</c:v>
+                  <c:v>10595</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>10598</c:v>
+                  <c:v>10597</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>10600</c:v>
+                  <c:v>10599</c:v>
                 </c:pt>
                 <c:pt idx="271">
                   <c:v>10601</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>10603</c:v>
+                  <c:v>10602</c:v>
                 </c:pt>
                 <c:pt idx="273">
                   <c:v>10604</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>10606</c:v>
+                  <c:v>10605</c:v>
                 </c:pt>
                 <c:pt idx="275">
+                  <c:v>10607</c:v>
+                </c:pt>
+                <c:pt idx="276">
                   <c:v>10608</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>10609</c:v>
                 </c:pt>
                 <c:pt idx="277">
                   <c:v>10610</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>10612</c:v>
+                  <c:v>10611</c:v>
                 </c:pt>
                 <c:pt idx="279">
                   <c:v>10613</c:v>
@@ -4611,7 +4611,7 @@
                   <c:v>10614</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>10616</c:v>
+                  <c:v>10615</c:v>
                 </c:pt>
                 <c:pt idx="282">
                   <c:v>10617</c:v>
@@ -4629,34 +4629,34 @@
                   <c:v>10621</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>10622</c:v>
+                  <c:v>10623</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>10623</c:v>
+                  <c:v>10624</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>10624</c:v>
+                  <c:v>10625</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>10625</c:v>
+                  <c:v>10626</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>10626</c:v>
+                  <c:v>10627</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>10627</c:v>
+                  <c:v>10628</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>10628</c:v>
+                  <c:v>10629</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>10629</c:v>
+                  <c:v>10630</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>10630</c:v>
+                  <c:v>10631</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10631</c:v>
+                  <c:v>10632</c:v>
                 </c:pt>
                 <c:pt idx="297">
                   <c:v>10632</c:v>
@@ -4668,10 +4668,10 @@
                   <c:v>10634</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>10634</c:v>
+                  <c:v>10635</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>10635</c:v>
+                  <c:v>10636</c:v>
                 </c:pt>
                 <c:pt idx="302">
                   <c:v>10636</c:v>
@@ -4683,7 +4683,7 @@
                   <c:v>10638</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>10638</c:v>
+                  <c:v>10639</c:v>
                 </c:pt>
                 <c:pt idx="306">
                   <c:v>10639</c:v>
@@ -4692,7 +4692,7 @@
                   <c:v>10640</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>10640</c:v>
+                  <c:v>10641</c:v>
                 </c:pt>
                 <c:pt idx="309">
                   <c:v>10641</c:v>
@@ -4701,7 +4701,7 @@
                   <c:v>10642</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>10642</c:v>
+                  <c:v>10643</c:v>
                 </c:pt>
                 <c:pt idx="312">
                   <c:v>10643</c:v>
@@ -6869,11 +6869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1551925872"/>
-        <c:axId val="1551930224"/>
+        <c:axId val="532351520"/>
+        <c:axId val="532358048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1551925872"/>
+        <c:axId val="532351520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6930,12 +6930,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1551930224"/>
+        <c:crossAx val="532358048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1551930224"/>
+        <c:axId val="532358048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6986,7 +6986,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1551925872"/>
+        <c:crossAx val="532351520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8535,20 +8535,20 @@
       <selection activeCell="M338" sqref="M338"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>3924</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>4076</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>4249</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>4665</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>6619</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v>6822</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>7069</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>7069</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>7082</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>7082</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>7082</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>7082</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>7082</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>7168</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>7635</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>7719</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>7719</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>7719</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>7719</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>7719</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>7797</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>7830</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>7862</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>7862</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>7862</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>7862</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>7862</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>7977</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>7977</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>8018</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>8018</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>8018</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>8018</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>8018</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>8115</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>8157</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>8157</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>8166</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>8263</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>8263</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>8263</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>8278</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>8331</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>8362</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>8435</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>8478</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>8478</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -10310,7 +10310,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>8622</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>8622</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>8643</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>8643</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>8643</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>8643</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>8668</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>8729</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -10466,7 +10466,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -10502,7 +10502,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>8745</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>8881</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>8881</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>8881</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -10574,7 +10574,7 @@
         <v>8931</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>8931</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>8931</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>9007</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>9007</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10634,7 +10634,7 @@
         <v>9007</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>9096</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>9096</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>9096</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>9096</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>9229</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>9229</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>9238</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>9265</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>9249</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>9343</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>9482</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>9482</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>9482</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>9482</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>9526</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>9526</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>9526</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -10994,7 +10994,7 @@
         <v>9555</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>9555</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>9555</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>9593</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>9602</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>10042</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>10042</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>10042</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>10042</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>10042</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>10042</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>10042</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>10322</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>10507</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>262</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -11714,7 +11714,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -11786,7 +11786,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -12434,7 +12434,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -12506,7 +12506,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -12566,7 +12566,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -12602,7 +12602,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -12686,7 +12686,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -12842,7 +12842,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>10666</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -12932,9 +12932,9 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -12973,12 +12973,12 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>68.417332337292379</v>
+        <v>68.476510386318623</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -12990,7 +12990,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>7</v>
       </c>
@@ -13069,12 +13069,12 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -13086,7 +13086,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>11</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>12</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>13</v>
       </c>
@@ -13153,7 +13153,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16">
         <v>14</v>
       </c>
@@ -13161,10 +13161,10 @@
         <v>2081</v>
       </c>
       <c r="F16">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>15</v>
       </c>
@@ -13172,10 +13172,10 @@
         <v>2081</v>
       </c>
       <c r="F17">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>16</v>
       </c>
@@ -13183,10 +13183,10 @@
         <v>2081</v>
       </c>
       <c r="F18">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>17</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>18</v>
       </c>
@@ -13205,10 +13205,10 @@
         <v>2407</v>
       </c>
       <c r="F20">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>19</v>
       </c>
@@ -13216,10 +13216,10 @@
         <v>2407</v>
       </c>
       <c r="F21">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>20</v>
       </c>
@@ -13227,10 +13227,10 @@
         <v>2710</v>
       </c>
       <c r="F22">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>21</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>22</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>23</v>
       </c>
@@ -13260,10 +13260,10 @@
         <v>2710</v>
       </c>
       <c r="F25">
-        <v>2273</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>24</v>
       </c>
@@ -13271,10 +13271,10 @@
         <v>3022</v>
       </c>
       <c r="F26">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>25</v>
       </c>
@@ -13282,10 +13282,10 @@
         <v>3022</v>
       </c>
       <c r="F27">
-        <v>2366</v>
-      </c>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>26</v>
       </c>
@@ -13293,10 +13293,10 @@
         <v>3280</v>
       </c>
       <c r="F28">
-        <v>2414</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>27</v>
       </c>
@@ -13304,10 +13304,10 @@
         <v>3280</v>
       </c>
       <c r="F29">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>28</v>
       </c>
@@ -13315,10 +13315,10 @@
         <v>3458</v>
       </c>
       <c r="F30">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>29</v>
       </c>
@@ -13326,10 +13326,10 @@
         <v>3458</v>
       </c>
       <c r="F31">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>30</v>
       </c>
@@ -13337,10 +13337,10 @@
         <v>3458</v>
       </c>
       <c r="F32">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>31</v>
       </c>
@@ -13348,10 +13348,10 @@
         <v>3458</v>
       </c>
       <c r="F33">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>32</v>
       </c>
@@ -13359,10 +13359,10 @@
         <v>3458</v>
       </c>
       <c r="F34">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>33</v>
       </c>
@@ -13370,10 +13370,10 @@
         <v>3696</v>
       </c>
       <c r="F35">
-        <v>2766</v>
-      </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>34</v>
       </c>
@@ -13381,10 +13381,10 @@
         <v>3696</v>
       </c>
       <c r="F36">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>35</v>
       </c>
@@ -13392,10 +13392,10 @@
         <v>3834</v>
       </c>
       <c r="F37">
-        <v>2872</v>
-      </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>36</v>
       </c>
@@ -13403,10 +13403,10 @@
         <v>3834</v>
       </c>
       <c r="F38">
-        <v>2926</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>37</v>
       </c>
@@ -13414,10 +13414,10 @@
         <v>3834</v>
       </c>
       <c r="F39">
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>38</v>
       </c>
@@ -13425,10 +13425,10 @@
         <v>3834</v>
       </c>
       <c r="F40">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>39</v>
       </c>
@@ -13436,10 +13436,10 @@
         <v>3834</v>
       </c>
       <c r="F41">
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>40</v>
       </c>
@@ -13447,10 +13447,10 @@
         <v>3924</v>
       </c>
       <c r="F42">
-        <v>3149</v>
-      </c>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>41</v>
       </c>
@@ -13458,10 +13458,10 @@
         <v>3924</v>
       </c>
       <c r="F43">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>42</v>
       </c>
@@ -13469,10 +13469,10 @@
         <v>4076</v>
       </c>
       <c r="F44">
-        <v>3265</v>
-      </c>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>43</v>
       </c>
@@ -13480,10 +13480,10 @@
         <v>4076</v>
       </c>
       <c r="F45">
-        <v>3323</v>
-      </c>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>44</v>
       </c>
@@ -13491,10 +13491,10 @@
         <v>4076</v>
       </c>
       <c r="F46">
-        <v>3382</v>
-      </c>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>45</v>
       </c>
@@ -13502,10 +13502,10 @@
         <v>4076</v>
       </c>
       <c r="F47">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>46</v>
       </c>
@@ -13513,10 +13513,10 @@
         <v>4076</v>
       </c>
       <c r="F48">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3503</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D49">
         <v>47</v>
       </c>
@@ -13524,10 +13524,10 @@
         <v>4249</v>
       </c>
       <c r="F49">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D50">
         <v>48</v>
       </c>
@@ -13535,10 +13535,10 @@
         <v>4249</v>
       </c>
       <c r="F50">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D51">
         <v>49</v>
       </c>
@@ -13546,10 +13546,10 @@
         <v>4262</v>
       </c>
       <c r="F51">
-        <v>3685</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D52">
         <v>50</v>
       </c>
@@ -13557,10 +13557,10 @@
         <v>4262</v>
       </c>
       <c r="F52">
-        <v>3747</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D53">
         <v>51</v>
       </c>
@@ -13568,10 +13568,10 @@
         <v>4262</v>
       </c>
       <c r="F53">
-        <v>3810</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3812</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D54">
         <v>52</v>
       </c>
@@ -13579,10 +13579,10 @@
         <v>4262</v>
       </c>
       <c r="F54">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D55">
         <v>53</v>
       </c>
@@ -13590,10 +13590,10 @@
         <v>4262</v>
       </c>
       <c r="F55">
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.35">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D56">
         <v>54</v>
       </c>
@@ -13601,10 +13601,10 @@
         <v>4665</v>
       </c>
       <c r="F56">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D57">
         <v>55</v>
       </c>
@@ -13612,10 +13612,10 @@
         <v>4665</v>
       </c>
       <c r="F57">
-        <v>4064</v>
-      </c>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D58">
         <v>56</v>
       </c>
@@ -13623,10 +13623,10 @@
         <v>4665</v>
       </c>
       <c r="F58">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D59">
         <v>57</v>
       </c>
@@ -13634,10 +13634,10 @@
         <v>4665</v>
       </c>
       <c r="F59">
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D60">
         <v>58</v>
       </c>
@@ -13645,10 +13645,10 @@
         <v>4665</v>
       </c>
       <c r="F60">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D61">
         <v>59</v>
       </c>
@@ -13656,10 +13656,10 @@
         <v>4665</v>
       </c>
       <c r="F61">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D62">
         <v>60</v>
       </c>
@@ -13667,10 +13667,10 @@
         <v>4665</v>
       </c>
       <c r="F62">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D63">
         <v>61</v>
       </c>
@@ -13678,10 +13678,10 @@
         <v>6535</v>
       </c>
       <c r="F63">
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4461</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D64">
         <v>62</v>
       </c>
@@ -13689,10 +13689,10 @@
         <v>6535</v>
       </c>
       <c r="F64">
-        <v>4525</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D65">
         <v>63</v>
       </c>
@@ -13700,10 +13700,10 @@
         <v>6535</v>
       </c>
       <c r="F65">
-        <v>4592</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>64</v>
       </c>
@@ -13711,10 +13711,10 @@
         <v>6535</v>
       </c>
       <c r="F66">
-        <v>4659</v>
-      </c>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4662</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>65</v>
       </c>
@@ -13722,10 +13722,10 @@
         <v>6535</v>
       </c>
       <c r="F67">
-        <v>4726</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4730</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>66</v>
       </c>
@@ -13733,10 +13733,10 @@
         <v>6535</v>
       </c>
       <c r="F68">
-        <v>4794</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>67</v>
       </c>
@@ -13744,10 +13744,10 @@
         <v>6535</v>
       </c>
       <c r="F69">
-        <v>4862</v>
-      </c>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>68</v>
       </c>
@@ -13755,10 +13755,10 @@
         <v>6525</v>
       </c>
       <c r="F70">
-        <v>4930</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.35">
+        <v>4933</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>69</v>
       </c>
@@ -13766,10 +13766,10 @@
         <v>6525</v>
       </c>
       <c r="F71">
-        <v>4998</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>70</v>
       </c>
@@ -13777,10 +13777,10 @@
         <v>6619</v>
       </c>
       <c r="F72">
-        <v>5066</v>
-      </c>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>71</v>
       </c>
@@ -13788,10 +13788,10 @@
         <v>6619</v>
       </c>
       <c r="F73">
-        <v>5134</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>72</v>
       </c>
@@ -13799,10 +13799,10 @@
         <v>6619</v>
       </c>
       <c r="F74">
-        <v>5203</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>73</v>
       </c>
@@ -13810,10 +13810,10 @@
         <v>6619</v>
       </c>
       <c r="F75">
-        <v>5271</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>74</v>
       </c>
@@ -13821,10 +13821,10 @@
         <v>6619</v>
       </c>
       <c r="F76">
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>75</v>
       </c>
@@ -13832,10 +13832,10 @@
         <v>6822</v>
       </c>
       <c r="F77">
-        <v>5408</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>76</v>
       </c>
@@ -13843,10 +13843,10 @@
         <v>6822</v>
       </c>
       <c r="F78">
-        <v>5477</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>77</v>
       </c>
@@ -13854,10 +13854,10 @@
         <v>6878</v>
       </c>
       <c r="F79">
-        <v>5545</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>78</v>
       </c>
@@ -13865,10 +13865,10 @@
         <v>6878</v>
       </c>
       <c r="F80">
-        <v>5613</v>
-      </c>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5617</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>79</v>
       </c>
@@ -13876,10 +13876,10 @@
         <v>6878</v>
       </c>
       <c r="F81">
-        <v>5682</v>
-      </c>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5685</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>80</v>
       </c>
@@ -13887,10 +13887,10 @@
         <v>6878</v>
       </c>
       <c r="F82">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5753</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>81</v>
       </c>
@@ -13898,10 +13898,10 @@
         <v>6878</v>
       </c>
       <c r="F83">
-        <v>5818</v>
-      </c>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>82</v>
       </c>
@@ -13909,10 +13909,10 @@
         <v>7069</v>
       </c>
       <c r="F84">
-        <v>5886</v>
-      </c>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5889</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>83</v>
       </c>
@@ -13920,10 +13920,10 @@
         <v>7069</v>
       </c>
       <c r="F85">
-        <v>5953</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.35">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>84</v>
       </c>
@@ -13931,10 +13931,10 @@
         <v>7082</v>
       </c>
       <c r="F86">
-        <v>6021</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>85</v>
       </c>
@@ -13942,10 +13942,10 @@
         <v>7082</v>
       </c>
       <c r="F87">
-        <v>6088</v>
-      </c>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>86</v>
       </c>
@@ -13953,10 +13953,10 @@
         <v>7082</v>
       </c>
       <c r="F88">
-        <v>6155</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6159</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>87</v>
       </c>
@@ -13964,10 +13964,10 @@
         <v>7082</v>
       </c>
       <c r="F89">
-        <v>6221</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6225</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>88</v>
       </c>
@@ -13975,10 +13975,10 @@
         <v>7082</v>
       </c>
       <c r="F90">
-        <v>6288</v>
-      </c>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6292</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>89</v>
       </c>
@@ -13986,10 +13986,10 @@
         <v>7168</v>
       </c>
       <c r="F91">
-        <v>6354</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6358</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>90</v>
       </c>
@@ -13997,10 +13997,10 @@
         <v>7168</v>
       </c>
       <c r="F92">
-        <v>6419</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>91</v>
       </c>
@@ -14008,10 +14008,10 @@
         <v>7168</v>
       </c>
       <c r="F93">
-        <v>6485</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>92</v>
       </c>
@@ -14019,10 +14019,10 @@
         <v>7168</v>
       </c>
       <c r="F94">
-        <v>6550</v>
-      </c>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>93</v>
       </c>
@@ -14030,10 +14030,10 @@
         <v>7168</v>
       </c>
       <c r="F95">
-        <v>6614</v>
-      </c>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6619</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>94</v>
       </c>
@@ -14041,10 +14041,10 @@
         <v>7635</v>
       </c>
       <c r="F96">
-        <v>6679</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>95</v>
       </c>
@@ -14052,10 +14052,10 @@
         <v>7635</v>
       </c>
       <c r="F97">
-        <v>6742</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6747</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>96</v>
       </c>
@@ -14063,10 +14063,10 @@
         <v>7635</v>
       </c>
       <c r="F98">
-        <v>6806</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6810</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>97</v>
       </c>
@@ -14074,10 +14074,10 @@
         <v>7635</v>
       </c>
       <c r="F99">
-        <v>6869</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>98</v>
       </c>
@@ -14085,10 +14085,10 @@
         <v>7635</v>
       </c>
       <c r="F100">
-        <v>6931</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>99</v>
       </c>
@@ -14096,10 +14096,10 @@
         <v>7635</v>
       </c>
       <c r="F101">
-        <v>6993</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.35">
+        <v>6998</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>100</v>
       </c>
@@ -14107,10 +14107,10 @@
         <v>7635</v>
       </c>
       <c r="F102">
-        <v>7055</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7059</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>101</v>
       </c>
@@ -14118,10 +14118,10 @@
         <v>7635</v>
       </c>
       <c r="F103">
-        <v>7116</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7121</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>102</v>
       </c>
@@ -14129,10 +14129,10 @@
         <v>7635</v>
       </c>
       <c r="F104">
-        <v>7176</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7181</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>103</v>
       </c>
@@ -14140,10 +14140,10 @@
         <v>7719</v>
       </c>
       <c r="F105">
-        <v>7236</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7241</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>104</v>
       </c>
@@ -14151,10 +14151,10 @@
         <v>7719</v>
       </c>
       <c r="F106">
-        <v>7296</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>105</v>
       </c>
@@ -14162,10 +14162,10 @@
         <v>7719</v>
       </c>
       <c r="F107">
-        <v>7354</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>106</v>
       </c>
@@ -14173,10 +14173,10 @@
         <v>7719</v>
       </c>
       <c r="F108">
-        <v>7413</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>107</v>
       </c>
@@ -14184,10 +14184,10 @@
         <v>7719</v>
       </c>
       <c r="F109">
-        <v>7470</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7475</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>108</v>
       </c>
@@ -14195,10 +14195,10 @@
         <v>7797</v>
       </c>
       <c r="F110">
-        <v>7528</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7532</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>109</v>
       </c>
@@ -14206,10 +14206,10 @@
         <v>7797</v>
       </c>
       <c r="F111">
-        <v>7584</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>110</v>
       </c>
@@ -14217,10 +14217,10 @@
         <v>7797</v>
       </c>
       <c r="F112">
-        <v>7640</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7645</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>111</v>
       </c>
@@ -14228,10 +14228,10 @@
         <v>7797</v>
       </c>
       <c r="F113">
-        <v>7695</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>112</v>
       </c>
@@ -14239,10 +14239,10 @@
         <v>7797</v>
       </c>
       <c r="F114">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>113</v>
       </c>
@@ -14250,10 +14250,10 @@
         <v>7797</v>
       </c>
       <c r="F115">
-        <v>7804</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7809</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>114</v>
       </c>
@@ -14261,10 +14261,10 @@
         <v>7797</v>
       </c>
       <c r="F116">
-        <v>7858</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>115</v>
       </c>
@@ -14272,10 +14272,10 @@
         <v>7830</v>
       </c>
       <c r="F117">
-        <v>7910</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>116</v>
       </c>
@@ -14283,10 +14283,10 @@
         <v>7830</v>
       </c>
       <c r="F118">
-        <v>7963</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.35">
+        <v>7967</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>117</v>
       </c>
@@ -14294,10 +14294,10 @@
         <v>7862</v>
       </c>
       <c r="F119">
-        <v>8014</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8019</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>118</v>
       </c>
@@ -14305,10 +14305,10 @@
         <v>7862</v>
       </c>
       <c r="F120">
-        <v>8065</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>119</v>
       </c>
@@ -14316,10 +14316,10 @@
         <v>7862</v>
       </c>
       <c r="F121">
-        <v>8115</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>120</v>
       </c>
@@ -14327,10 +14327,10 @@
         <v>7862</v>
       </c>
       <c r="F122">
-        <v>8165</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8169</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>121</v>
       </c>
@@ -14338,10 +14338,10 @@
         <v>7862</v>
       </c>
       <c r="F123">
-        <v>8213</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>122</v>
       </c>
@@ -14349,10 +14349,10 @@
         <v>7977</v>
       </c>
       <c r="F124">
-        <v>8262</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>123</v>
       </c>
@@ -14360,10 +14360,10 @@
         <v>7977</v>
       </c>
       <c r="F125">
-        <v>8309</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8313</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>124</v>
       </c>
@@ -14371,10 +14371,10 @@
         <v>8018</v>
       </c>
       <c r="F126">
-        <v>8356</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>125</v>
       </c>
@@ -14382,10 +14382,10 @@
         <v>8018</v>
       </c>
       <c r="F127">
-        <v>8402</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>126</v>
       </c>
@@ -14393,10 +14393,10 @@
         <v>8018</v>
       </c>
       <c r="F128">
-        <v>8447</v>
-      </c>
-    </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>127</v>
       </c>
@@ -14404,10 +14404,10 @@
         <v>8018</v>
       </c>
       <c r="F129">
-        <v>8492</v>
-      </c>
-    </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D130">
         <v>128</v>
       </c>
@@ -14415,10 +14415,10 @@
         <v>8018</v>
       </c>
       <c r="F130">
-        <v>8536</v>
-      </c>
-    </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8540</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D131">
         <v>129</v>
       </c>
@@ -14426,10 +14426,10 @@
         <v>8115</v>
       </c>
       <c r="F131">
-        <v>8580</v>
-      </c>
-    </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8584</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D132">
         <v>130</v>
       </c>
@@ -14437,10 +14437,10 @@
         <v>8157</v>
       </c>
       <c r="F132">
-        <v>8622</v>
-      </c>
-    </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8626</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D133">
         <v>131</v>
       </c>
@@ -14448,10 +14448,10 @@
         <v>8157</v>
       </c>
       <c r="F133">
-        <v>8665</v>
-      </c>
-    </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D134">
         <v>132</v>
       </c>
@@ -14459,10 +14459,10 @@
         <v>8166</v>
       </c>
       <c r="F134">
-        <v>8706</v>
-      </c>
-    </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D135">
         <v>133</v>
       </c>
@@ -14470,10 +14470,10 @@
         <v>8263</v>
       </c>
       <c r="F135">
-        <v>8747</v>
-      </c>
-    </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D136">
         <v>134</v>
       </c>
@@ -14481,10 +14481,10 @@
         <v>8263</v>
       </c>
       <c r="F136">
-        <v>8787</v>
-      </c>
-    </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D137">
         <v>135</v>
       </c>
@@ -14492,10 +14492,10 @@
         <v>8263</v>
       </c>
       <c r="F137">
-        <v>8826</v>
-      </c>
-    </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D138">
         <v>136</v>
       </c>
@@ -14503,10 +14503,10 @@
         <v>8278</v>
       </c>
       <c r="F138">
-        <v>8865</v>
-      </c>
-    </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D139">
         <v>137</v>
       </c>
@@ -14514,10 +14514,10 @@
         <v>8278</v>
       </c>
       <c r="F139">
-        <v>8903</v>
-      </c>
-    </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D140">
         <v>138</v>
       </c>
@@ -14525,10 +14525,10 @@
         <v>8331</v>
       </c>
       <c r="F140">
-        <v>8940</v>
-      </c>
-    </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D141">
         <v>139</v>
       </c>
@@ -14536,10 +14536,10 @@
         <v>8362</v>
       </c>
       <c r="F141">
-        <v>8977</v>
-      </c>
-    </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.35">
+        <v>8981</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D142">
         <v>140</v>
       </c>
@@ -14547,10 +14547,10 @@
         <v>8362</v>
       </c>
       <c r="F142">
-        <v>9013</v>
-      </c>
-    </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D143">
         <v>141</v>
       </c>
@@ -14558,10 +14558,10 @@
         <v>8362</v>
       </c>
       <c r="F143">
-        <v>9049</v>
-      </c>
-    </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9052</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D144">
         <v>142</v>
       </c>
@@ -14569,10 +14569,10 @@
         <v>8362</v>
       </c>
       <c r="F144">
-        <v>9084</v>
-      </c>
-    </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D145">
         <v>143</v>
       </c>
@@ -14580,10 +14580,10 @@
         <v>8435</v>
       </c>
       <c r="F145">
-        <v>9118</v>
-      </c>
-    </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D146">
         <v>144</v>
       </c>
@@ -14591,10 +14591,10 @@
         <v>8478</v>
       </c>
       <c r="F146">
-        <v>9152</v>
-      </c>
-    </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D147">
         <v>145</v>
       </c>
@@ -14602,10 +14602,10 @@
         <v>8478</v>
       </c>
       <c r="F147">
-        <v>9185</v>
-      </c>
-    </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D148">
         <v>146</v>
       </c>
@@ -14613,10 +14613,10 @@
         <v>8524</v>
       </c>
       <c r="F148">
-        <v>9218</v>
-      </c>
-    </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D149">
         <v>147</v>
       </c>
@@ -14624,10 +14624,10 @@
         <v>8524</v>
       </c>
       <c r="F149">
-        <v>9250</v>
-      </c>
-    </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D150">
         <v>148</v>
       </c>
@@ -14635,10 +14635,10 @@
         <v>8524</v>
       </c>
       <c r="F150">
-        <v>9281</v>
-      </c>
-    </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9283</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D151">
         <v>149</v>
       </c>
@@ -14646,10 +14646,10 @@
         <v>8524</v>
       </c>
       <c r="F151">
-        <v>9312</v>
-      </c>
-    </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9314</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D152">
         <v>150</v>
       </c>
@@ -14657,10 +14657,10 @@
         <v>8524</v>
       </c>
       <c r="F152">
-        <v>9342</v>
-      </c>
-    </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9344</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D153">
         <v>151</v>
       </c>
@@ -14668,10 +14668,10 @@
         <v>8622</v>
       </c>
       <c r="F153">
-        <v>9372</v>
-      </c>
-    </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D154">
         <v>152</v>
       </c>
@@ -14679,10 +14679,10 @@
         <v>8622</v>
       </c>
       <c r="F154">
-        <v>9401</v>
-      </c>
-    </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D155">
         <v>153</v>
       </c>
@@ -14690,10 +14690,10 @@
         <v>8643</v>
       </c>
       <c r="F155">
-        <v>9430</v>
-      </c>
-    </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9431</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D156">
         <v>154</v>
       </c>
@@ -14701,10 +14701,10 @@
         <v>8643</v>
       </c>
       <c r="F156">
-        <v>9458</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9459</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D157">
         <v>155</v>
       </c>
@@ -14712,10 +14712,10 @@
         <v>8643</v>
       </c>
       <c r="F157">
-        <v>9485</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9486</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D158">
         <v>156</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>9512</v>
       </c>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D159">
         <v>157</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>9539</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D160">
         <v>158</v>
       </c>
@@ -14745,10 +14745,10 @@
         <v>8729</v>
       </c>
       <c r="F160">
-        <v>9565</v>
-      </c>
-    </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9564</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161">
         <v>159</v>
       </c>
@@ -14756,10 +14756,10 @@
         <v>8745</v>
       </c>
       <c r="F161">
-        <v>9590</v>
-      </c>
-    </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9589</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162">
         <v>160</v>
       </c>
@@ -14767,10 +14767,10 @@
         <v>8745</v>
       </c>
       <c r="F162">
-        <v>9615</v>
-      </c>
-    </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9614</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163">
         <v>161</v>
       </c>
@@ -14778,10 +14778,10 @@
         <v>8745</v>
       </c>
       <c r="F163">
-        <v>9639</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9638</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164">
         <v>162</v>
       </c>
@@ -14789,10 +14789,10 @@
         <v>8745</v>
       </c>
       <c r="F164">
-        <v>9663</v>
-      </c>
-    </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9662</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165">
         <v>163</v>
       </c>
@@ -14800,10 +14800,10 @@
         <v>8745</v>
       </c>
       <c r="F165">
-        <v>9686</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166">
         <v>164</v>
       </c>
@@ -14811,10 +14811,10 @@
         <v>8745</v>
       </c>
       <c r="F166">
-        <v>9709</v>
-      </c>
-    </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9707</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167">
         <v>165</v>
       </c>
@@ -14822,10 +14822,10 @@
         <v>8881</v>
       </c>
       <c r="F167">
-        <v>9731</v>
-      </c>
-    </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9730</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168">
         <v>166</v>
       </c>
@@ -14833,10 +14833,10 @@
         <v>8881</v>
       </c>
       <c r="F168">
-        <v>9753</v>
-      </c>
-    </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9751</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169">
         <v>167</v>
       </c>
@@ -14844,10 +14844,10 @@
         <v>8881</v>
       </c>
       <c r="F169">
-        <v>9774</v>
-      </c>
-    </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9773</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D170">
         <v>168</v>
       </c>
@@ -14855,10 +14855,10 @@
         <v>8931</v>
       </c>
       <c r="F170">
-        <v>9795</v>
-      </c>
-    </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9793</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171">
         <v>169</v>
       </c>
@@ -14866,10 +14866,10 @@
         <v>8931</v>
       </c>
       <c r="F171">
-        <v>9816</v>
-      </c>
-    </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9814</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172">
         <v>170</v>
       </c>
@@ -14877,10 +14877,10 @@
         <v>8931</v>
       </c>
       <c r="F172">
-        <v>9836</v>
-      </c>
-    </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9834</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173">
         <v>171</v>
       </c>
@@ -14888,10 +14888,10 @@
         <v>9007</v>
       </c>
       <c r="F173">
-        <v>9855</v>
-      </c>
-    </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9853</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174">
         <v>172</v>
       </c>
@@ -14899,10 +14899,10 @@
         <v>9007</v>
       </c>
       <c r="F174">
-        <v>9874</v>
-      </c>
-    </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9872</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175">
         <v>173</v>
       </c>
@@ -14910,10 +14910,10 @@
         <v>9007</v>
       </c>
       <c r="F175">
-        <v>9893</v>
-      </c>
-    </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9891</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176">
         <v>174</v>
       </c>
@@ -14921,10 +14921,10 @@
         <v>9096</v>
       </c>
       <c r="F176">
-        <v>9911</v>
-      </c>
-    </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9909</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D177">
         <v>175</v>
       </c>
@@ -14932,10 +14932,10 @@
         <v>9096</v>
       </c>
       <c r="F177">
-        <v>9929</v>
-      </c>
-    </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9927</v>
+      </c>
+    </row>
+    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D178">
         <v>176</v>
       </c>
@@ -14943,10 +14943,10 @@
         <v>9096</v>
       </c>
       <c r="F178">
-        <v>9946</v>
-      </c>
-    </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9944</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D179">
         <v>177</v>
       </c>
@@ -14954,10 +14954,10 @@
         <v>9096</v>
       </c>
       <c r="F179">
-        <v>9963</v>
-      </c>
-    </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9962</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D180">
         <v>178</v>
       </c>
@@ -14965,10 +14965,10 @@
         <v>9229</v>
       </c>
       <c r="F180">
-        <v>9980</v>
-      </c>
-    </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9978</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D181">
         <v>179</v>
       </c>
@@ -14976,10 +14976,10 @@
         <v>9229</v>
       </c>
       <c r="F181">
-        <v>9996</v>
-      </c>
-    </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.35">
+        <v>9995</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D182">
         <v>180</v>
       </c>
@@ -14987,10 +14987,10 @@
         <v>9238</v>
       </c>
       <c r="F182">
-        <v>10012</v>
-      </c>
-    </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D183">
         <v>181</v>
       </c>
@@ -14998,10 +14998,10 @@
         <v>9265</v>
       </c>
       <c r="F183">
-        <v>10027</v>
-      </c>
-    </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10026</v>
+      </c>
+    </row>
+    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D184">
         <v>182</v>
       </c>
@@ -15009,10 +15009,10 @@
         <v>9265</v>
       </c>
       <c r="F184">
-        <v>10042</v>
-      </c>
-    </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10041</v>
+      </c>
+    </row>
+    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D185">
         <v>183</v>
       </c>
@@ -15020,10 +15020,10 @@
         <v>9265</v>
       </c>
       <c r="F185">
-        <v>10057</v>
-      </c>
-    </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10056</v>
+      </c>
+    </row>
+    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D186">
         <v>184</v>
       </c>
@@ -15031,10 +15031,10 @@
         <v>9265</v>
       </c>
       <c r="F186">
-        <v>10072</v>
-      </c>
-    </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10071</v>
+      </c>
+    </row>
+    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D187">
         <v>185</v>
       </c>
@@ -15042,10 +15042,10 @@
         <v>9265</v>
       </c>
       <c r="F187">
-        <v>10086</v>
-      </c>
-    </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10085</v>
+      </c>
+    </row>
+    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D188">
         <v>186</v>
       </c>
@@ -15053,10 +15053,10 @@
         <v>9265</v>
       </c>
       <c r="F188">
-        <v>10100</v>
-      </c>
-    </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10099</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D189">
         <v>187</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>10113</v>
       </c>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D190">
         <v>188</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>10126</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D191">
         <v>189</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>10139</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D192">
         <v>190</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>10152</v>
       </c>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D193">
         <v>191</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>10164</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D194">
         <v>192</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>10176</v>
       </c>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D195">
         <v>193</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>10188</v>
       </c>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D196">
         <v>194</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D197">
         <v>195</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>10211</v>
       </c>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D198">
         <v>196</v>
       </c>
@@ -15166,7 +15166,7 @@
         <v>10222</v>
       </c>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D199">
         <v>197</v>
       </c>
@@ -15177,7 +15177,7 @@
         <v>10233</v>
       </c>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D200">
         <v>198</v>
       </c>
@@ -15188,7 +15188,7 @@
         <v>10244</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D201">
         <v>199</v>
       </c>
@@ -15199,7 +15199,7 @@
         <v>10254</v>
       </c>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D202">
         <v>200</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>10264</v>
       </c>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D203">
         <v>201</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>10274</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D204">
         <v>202</v>
       </c>
@@ -15229,10 +15229,10 @@
         <v>9526</v>
       </c>
       <c r="F204">
-        <v>10284</v>
-      </c>
-    </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10283</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D205">
         <v>203</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>10293</v>
       </c>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D206">
         <v>204</v>
       </c>
@@ -15251,10 +15251,10 @@
         <v>9555</v>
       </c>
       <c r="F206">
-        <v>10303</v>
-      </c>
-    </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10302</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D207">
         <v>205</v>
       </c>
@@ -15262,10 +15262,10 @@
         <v>9555</v>
       </c>
       <c r="F207">
-        <v>10312</v>
-      </c>
-    </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10311</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D208">
         <v>206</v>
       </c>
@@ -15273,10 +15273,10 @@
         <v>9593</v>
       </c>
       <c r="F208">
-        <v>10320</v>
-      </c>
-    </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10319</v>
+      </c>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D209">
         <v>207</v>
       </c>
@@ -15284,10 +15284,10 @@
         <v>9602</v>
       </c>
       <c r="F209">
-        <v>10329</v>
-      </c>
-    </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10328</v>
+      </c>
+    </row>
+    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D210">
         <v>208</v>
       </c>
@@ -15295,10 +15295,10 @@
         <v>9602</v>
       </c>
       <c r="F210">
-        <v>10337</v>
-      </c>
-    </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10336</v>
+      </c>
+    </row>
+    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D211">
         <v>209</v>
       </c>
@@ -15306,10 +15306,10 @@
         <v>9602</v>
       </c>
       <c r="F211">
-        <v>10346</v>
-      </c>
-    </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10344</v>
+      </c>
+    </row>
+    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D212">
         <v>210</v>
       </c>
@@ -15317,10 +15317,10 @@
         <v>9602</v>
       </c>
       <c r="F212">
-        <v>10354</v>
-      </c>
-    </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10352</v>
+      </c>
+    </row>
+    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D213">
         <v>211</v>
       </c>
@@ -15328,10 +15328,10 @@
         <v>9602</v>
       </c>
       <c r="F213">
-        <v>10361</v>
-      </c>
-    </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10360</v>
+      </c>
+    </row>
+    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D214">
         <v>212</v>
       </c>
@@ -15339,10 +15339,10 @@
         <v>9602</v>
       </c>
       <c r="F214">
-        <v>10369</v>
-      </c>
-    </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10368</v>
+      </c>
+    </row>
+    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D215">
         <v>213</v>
       </c>
@@ -15350,10 +15350,10 @@
         <v>9602</v>
       </c>
       <c r="F215">
-        <v>10376</v>
-      </c>
-    </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10375</v>
+      </c>
+    </row>
+    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D216">
         <v>214</v>
       </c>
@@ -15361,10 +15361,10 @@
         <v>9602</v>
       </c>
       <c r="F216">
-        <v>10384</v>
-      </c>
-    </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10382</v>
+      </c>
+    </row>
+    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D217">
         <v>215</v>
       </c>
@@ -15372,10 +15372,10 @@
         <v>9602</v>
       </c>
       <c r="F217">
-        <v>10391</v>
-      </c>
-    </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10389</v>
+      </c>
+    </row>
+    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D218">
         <v>216</v>
       </c>
@@ -15383,10 +15383,10 @@
         <v>9602</v>
       </c>
       <c r="F218">
-        <v>10398</v>
-      </c>
-    </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10396</v>
+      </c>
+    </row>
+    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D219">
         <v>217</v>
       </c>
@@ -15394,10 +15394,10 @@
         <v>9602</v>
       </c>
       <c r="F219">
-        <v>10404</v>
-      </c>
-    </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D220">
         <v>218</v>
       </c>
@@ -15405,10 +15405,10 @@
         <v>9602</v>
       </c>
       <c r="F220">
-        <v>10411</v>
-      </c>
-    </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10409</v>
+      </c>
+    </row>
+    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D221">
         <v>219</v>
       </c>
@@ -15416,10 +15416,10 @@
         <v>9602</v>
       </c>
       <c r="F221">
-        <v>10417</v>
-      </c>
-    </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10415</v>
+      </c>
+    </row>
+    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D222">
         <v>220</v>
       </c>
@@ -15427,10 +15427,10 @@
         <v>9602</v>
       </c>
       <c r="F222">
-        <v>10423</v>
-      </c>
-    </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10422</v>
+      </c>
+    </row>
+    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D223">
         <v>221</v>
       </c>
@@ -15438,10 +15438,10 @@
         <v>9862</v>
       </c>
       <c r="F223">
-        <v>10429</v>
-      </c>
-    </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10428</v>
+      </c>
+    </row>
+    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D224">
         <v>222</v>
       </c>
@@ -15449,10 +15449,10 @@
         <v>9862</v>
       </c>
       <c r="F224">
-        <v>10435</v>
-      </c>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10434</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D225">
         <v>223</v>
       </c>
@@ -15460,10 +15460,10 @@
         <v>9862</v>
       </c>
       <c r="F225">
-        <v>10441</v>
-      </c>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10439</v>
+      </c>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D226">
         <v>224</v>
       </c>
@@ -15471,10 +15471,10 @@
         <v>9862</v>
       </c>
       <c r="F226">
-        <v>10446</v>
-      </c>
-    </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10445</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D227">
         <v>225</v>
       </c>
@@ -15482,10 +15482,10 @@
         <v>9862</v>
       </c>
       <c r="F227">
-        <v>10452</v>
-      </c>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10451</v>
+      </c>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D228">
         <v>226</v>
       </c>
@@ -15493,10 +15493,10 @@
         <v>9862</v>
       </c>
       <c r="F228">
-        <v>10457</v>
-      </c>
-    </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10456</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D229">
         <v>227</v>
       </c>
@@ -15504,10 +15504,10 @@
         <v>9862</v>
       </c>
       <c r="F229">
-        <v>10462</v>
-      </c>
-    </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10461</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D230">
         <v>228</v>
       </c>
@@ -15515,10 +15515,10 @@
         <v>9862</v>
       </c>
       <c r="F230">
-        <v>10467</v>
-      </c>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10466</v>
+      </c>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D231">
         <v>229</v>
       </c>
@@ -15526,10 +15526,10 @@
         <v>10042</v>
       </c>
       <c r="F231">
-        <v>10472</v>
-      </c>
-    </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D232">
         <v>230</v>
       </c>
@@ -15537,10 +15537,10 @@
         <v>10042</v>
       </c>
       <c r="F232">
-        <v>10477</v>
-      </c>
-    </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10476</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D233">
         <v>231</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>10481</v>
       </c>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D234">
         <v>232</v>
       </c>
@@ -15559,10 +15559,10 @@
         <v>10042</v>
       </c>
       <c r="F234">
-        <v>10486</v>
-      </c>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10485</v>
+      </c>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D235">
         <v>233</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>10490</v>
       </c>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D236">
         <v>234</v>
       </c>
@@ -15581,10 +15581,10 @@
         <v>10042</v>
       </c>
       <c r="F236">
-        <v>10495</v>
-      </c>
-    </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10494</v>
+      </c>
+    </row>
+    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D237">
         <v>235</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>10499</v>
       </c>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D238">
         <v>236</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>10503</v>
       </c>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D239">
         <v>237</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>10507</v>
       </c>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D240">
         <v>238</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>10511</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D241">
         <v>239</v>
       </c>
@@ -15636,10 +15636,10 @@
         <v>10212</v>
       </c>
       <c r="F241">
-        <v>10514</v>
-      </c>
-    </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10515</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D242">
         <v>240</v>
       </c>
@@ -15650,7 +15650,7 @@
         <v>10518</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D243">
         <v>241</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>10522</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D244">
         <v>242</v>
       </c>
@@ -15669,10 +15669,10 @@
         <v>10322</v>
       </c>
       <c r="F244">
-        <v>10525</v>
-      </c>
-    </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10526</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D245">
         <v>243</v>
       </c>
@@ -15683,7 +15683,7 @@
         <v>10529</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D246">
         <v>244</v>
       </c>
@@ -15691,10 +15691,10 @@
         <v>10322</v>
       </c>
       <c r="F246">
-        <v>10532</v>
-      </c>
-    </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D247">
         <v>245</v>
       </c>
@@ -15705,7 +15705,7 @@
         <v>10536</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D248">
         <v>246</v>
       </c>
@@ -15716,7 +15716,7 @@
         <v>10539</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D249">
         <v>247</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>10542</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D250">
         <v>248</v>
       </c>
@@ -15735,10 +15735,10 @@
         <v>10322</v>
       </c>
       <c r="F250">
-        <v>10545</v>
-      </c>
-    </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10546</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D251">
         <v>249</v>
       </c>
@@ -15746,10 +15746,10 @@
         <v>10507</v>
       </c>
       <c r="F251">
-        <v>10548</v>
-      </c>
-    </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10549</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D252">
         <v>250</v>
       </c>
@@ -15757,10 +15757,10 @@
         <v>10564</v>
       </c>
       <c r="F252">
-        <v>10551</v>
-      </c>
-    </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10552</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D253">
         <v>251</v>
       </c>
@@ -15771,7 +15771,7 @@
         <v>10554</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D254">
         <v>252</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>10557</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D255">
         <v>253</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>10560</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D256">
         <v>254</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>10563</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D257">
         <v>255</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>10565</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D258">
         <v>256</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>10568</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D259">
         <v>257</v>
       </c>
@@ -15837,7 +15837,7 @@
         <v>10570</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D260">
         <v>258</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>10573</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D261">
         <v>259</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>10575</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D262">
         <v>260</v>
       </c>
@@ -15867,10 +15867,10 @@
         <v>10604</v>
       </c>
       <c r="F262">
-        <v>10578</v>
-      </c>
-    </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10577</v>
+      </c>
+    </row>
+    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D263">
         <v>261</v>
       </c>
@@ -15878,10 +15878,10 @@
         <v>10604</v>
       </c>
       <c r="F263">
-        <v>10580</v>
-      </c>
-    </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10579</v>
+      </c>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D264">
         <v>262</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>10582</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D265">
         <v>263</v>
       </c>
@@ -15903,7 +15903,7 @@
         <v>10584</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D266">
         <v>264</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>10586</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D267">
         <v>265</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>10588</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D268">
         <v>266</v>
       </c>
@@ -15936,7 +15936,7 @@
         <v>10590</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D269">
         <v>267</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>10592</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D270">
         <v>268</v>
       </c>
@@ -15958,7 +15958,7 @@
         <v>10594</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D271">
         <v>269</v>
       </c>
@@ -15966,10 +15966,10 @@
         <v>10666</v>
       </c>
       <c r="F271">
-        <v>10596</v>
-      </c>
-    </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10595</v>
+      </c>
+    </row>
+    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D272">
         <v>270</v>
       </c>
@@ -15977,10 +15977,10 @@
         <v>10666</v>
       </c>
       <c r="F272">
-        <v>10598</v>
-      </c>
-    </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10597</v>
+      </c>
+    </row>
+    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D273">
         <v>271</v>
       </c>
@@ -15988,10 +15988,10 @@
         <v>10666</v>
       </c>
       <c r="F273">
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10599</v>
+      </c>
+    </row>
+    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D274">
         <v>272</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>10601</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D275">
         <v>273</v>
       </c>
@@ -16010,10 +16010,10 @@
         <v>10666</v>
       </c>
       <c r="F275">
-        <v>10603</v>
-      </c>
-    </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10602</v>
+      </c>
+    </row>
+    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D276">
         <v>274</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D277">
         <v>275</v>
       </c>
@@ -16032,10 +16032,10 @@
         <v>10666</v>
       </c>
       <c r="F277">
-        <v>10606</v>
-      </c>
-    </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10605</v>
+      </c>
+    </row>
+    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D278">
         <v>276</v>
       </c>
@@ -16043,10 +16043,10 @@
         <v>10666</v>
       </c>
       <c r="F278">
-        <v>10608</v>
-      </c>
-    </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D279">
         <v>277</v>
       </c>
@@ -16054,10 +16054,10 @@
         <v>10666</v>
       </c>
       <c r="F279">
-        <v>10609</v>
-      </c>
-    </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10608</v>
+      </c>
+    </row>
+    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D280">
         <v>278</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>10610</v>
       </c>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D281">
         <v>279</v>
       </c>
@@ -16076,10 +16076,10 @@
         <v>10666</v>
       </c>
       <c r="F281">
-        <v>10612</v>
-      </c>
-    </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10611</v>
+      </c>
+    </row>
+    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D282">
         <v>280</v>
       </c>
@@ -16090,7 +16090,7 @@
         <v>10613</v>
       </c>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D283">
         <v>281</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>10614</v>
       </c>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D284">
         <v>282</v>
       </c>
@@ -16109,10 +16109,10 @@
         <v>10666</v>
       </c>
       <c r="F284">
-        <v>10616</v>
-      </c>
-    </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10615</v>
+      </c>
+    </row>
+    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D285">
         <v>283</v>
       </c>
@@ -16123,7 +16123,7 @@
         <v>10617</v>
       </c>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D286">
         <v>284</v>
       </c>
@@ -16134,7 +16134,7 @@
         <v>10618</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D287">
         <v>285</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>10619</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D288">
         <v>286</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>10620</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289">
         <v>287</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>10621</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290">
         <v>288</v>
       </c>
@@ -16175,10 +16175,10 @@
         <v>10666</v>
       </c>
       <c r="F290">
-        <v>10622</v>
-      </c>
-    </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10623</v>
+      </c>
+    </row>
+    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291">
         <v>289</v>
       </c>
@@ -16186,10 +16186,10 @@
         <v>10666</v>
       </c>
       <c r="F291">
-        <v>10623</v>
-      </c>
-    </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10624</v>
+      </c>
+    </row>
+    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292">
         <v>290</v>
       </c>
@@ -16197,10 +16197,10 @@
         <v>10666</v>
       </c>
       <c r="F292">
-        <v>10624</v>
-      </c>
-    </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10625</v>
+      </c>
+    </row>
+    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293">
         <v>291</v>
       </c>
@@ -16208,10 +16208,10 @@
         <v>10666</v>
       </c>
       <c r="F293">
-        <v>10625</v>
-      </c>
-    </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10626</v>
+      </c>
+    </row>
+    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294">
         <v>292</v>
       </c>
@@ -16219,10 +16219,10 @@
         <v>10666</v>
       </c>
       <c r="F294">
-        <v>10626</v>
-      </c>
-    </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10627</v>
+      </c>
+    </row>
+    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295">
         <v>293</v>
       </c>
@@ -16230,10 +16230,10 @@
         <v>10666</v>
       </c>
       <c r="F295">
-        <v>10627</v>
-      </c>
-    </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10628</v>
+      </c>
+    </row>
+    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296">
         <v>294</v>
       </c>
@@ -16241,10 +16241,10 @@
         <v>10666</v>
       </c>
       <c r="F296">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10629</v>
+      </c>
+    </row>
+    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297">
         <v>295</v>
       </c>
@@ -16252,10 +16252,10 @@
         <v>10666</v>
       </c>
       <c r="F297">
-        <v>10629</v>
-      </c>
-    </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10630</v>
+      </c>
+    </row>
+    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298">
         <v>296</v>
       </c>
@@ -16263,10 +16263,10 @@
         <v>10666</v>
       </c>
       <c r="F298">
-        <v>10630</v>
-      </c>
-    </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10631</v>
+      </c>
+    </row>
+    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299">
         <v>297</v>
       </c>
@@ -16274,10 +16274,10 @@
         <v>10666</v>
       </c>
       <c r="F299">
-        <v>10631</v>
-      </c>
-    </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10632</v>
+      </c>
+    </row>
+    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D300">
         <v>298</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>10632</v>
       </c>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D301">
         <v>299</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>10633</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D302">
         <v>300</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D303">
         <v>301</v>
       </c>
@@ -16318,10 +16318,10 @@
         <v>10666</v>
       </c>
       <c r="F303">
-        <v>10634</v>
-      </c>
-    </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10635</v>
+      </c>
+    </row>
+    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D304">
         <v>302</v>
       </c>
@@ -16329,10 +16329,10 @@
         <v>10666</v>
       </c>
       <c r="F304">
-        <v>10635</v>
-      </c>
-    </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10636</v>
+      </c>
+    </row>
+    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D305">
         <v>303</v>
       </c>
@@ -16343,7 +16343,7 @@
         <v>10636</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D306">
         <v>304</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>10637</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D307">
         <v>305</v>
       </c>
@@ -16365,7 +16365,7 @@
         <v>10638</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D308">
         <v>306</v>
       </c>
@@ -16373,10 +16373,10 @@
         <v>10666</v>
       </c>
       <c r="F308">
-        <v>10638</v>
-      </c>
-    </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D309">
         <v>307</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>10639</v>
       </c>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D310">
         <v>308</v>
       </c>
@@ -16398,7 +16398,7 @@
         <v>10640</v>
       </c>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D311">
         <v>309</v>
       </c>
@@ -16406,10 +16406,10 @@
         <v>10666</v>
       </c>
       <c r="F311">
-        <v>10640</v>
-      </c>
-    </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10641</v>
+      </c>
+    </row>
+    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D312">
         <v>310</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>10641</v>
       </c>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D313">
         <v>311</v>
       </c>
@@ -16431,7 +16431,7 @@
         <v>10642</v>
       </c>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D314">
         <v>312</v>
       </c>
@@ -16439,10 +16439,10 @@
         <v>10666</v>
       </c>
       <c r="F314">
-        <v>10642</v>
-      </c>
-    </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10643</v>
+      </c>
+    </row>
+    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D315">
         <v>313</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>10643</v>
       </c>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D316">
         <v>314</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>10644</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D317">
         <v>315</v>
       </c>
@@ -16475,7 +16475,7 @@
         <v>10644</v>
       </c>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D318">
         <v>316</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>10645</v>
       </c>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D319">
         <v>317</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>10645</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D320">
         <v>318</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>10646</v>
       </c>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D321">
         <v>319</v>
       </c>
@@ -16519,7 +16519,7 @@
         <v>10646</v>
       </c>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D322">
         <v>320</v>
       </c>
@@ -16530,7 +16530,7 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D323">
         <v>321</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>10647</v>
       </c>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D324">
         <v>322</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>10648</v>
       </c>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D325">
         <v>323</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>10648</v>
       </c>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D326">
         <v>324</v>
       </c>
@@ -16574,7 +16574,7 @@
         <v>10649</v>
       </c>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D327">
         <v>325</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>10649</v>
       </c>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D328">
         <v>326</v>
       </c>
@@ -16596,7 +16596,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D329">
         <v>327</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D330">
         <v>328</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D331">
         <v>329</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>10651</v>
       </c>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D332">
         <v>330</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>10651</v>
       </c>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D333">
         <v>331</v>
       </c>
@@ -16651,7 +16651,7 @@
         <v>10652</v>
       </c>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D334">
         <v>332</v>
       </c>
@@ -16662,7 +16662,7 @@
         <v>10652</v>
       </c>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D335">
         <v>333</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>10652</v>
       </c>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D336">
         <v>334</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>10653</v>
       </c>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D337">
         <v>335</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>10653</v>
       </c>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D338">
         <v>336</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>10653</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D339">
         <v>337</v>
       </c>
@@ -16717,7 +16717,7 @@
         <v>10654</v>
       </c>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D340">
         <v>338</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>10654</v>
       </c>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D341">
         <v>339</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>10654</v>
       </c>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D342">
         <v>340</v>
       </c>
@@ -16747,10 +16747,10 @@
         <v>10666</v>
       </c>
       <c r="F342">
-        <v>10654</v>
-      </c>
-    </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10655</v>
+      </c>
+    </row>
+    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D343">
         <v>341</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D344">
         <v>342</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D345">
         <v>343</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>10655</v>
       </c>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D346">
         <v>344</v>
       </c>
@@ -16791,10 +16791,10 @@
         <v>10666</v>
       </c>
       <c r="F346">
-        <v>10655</v>
-      </c>
-    </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10656</v>
+      </c>
+    </row>
+    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D347">
         <v>345</v>
       </c>
@@ -16805,7 +16805,7 @@
         <v>10656</v>
       </c>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D348">
         <v>346</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>10656</v>
       </c>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D349">
         <v>347</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>10656</v>
       </c>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D350">
         <v>348</v>
       </c>
@@ -16835,10 +16835,10 @@
         <v>10666</v>
       </c>
       <c r="F350">
-        <v>10656</v>
-      </c>
-    </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10657</v>
+      </c>
+    </row>
+    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D351">
         <v>349</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>10657</v>
       </c>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D352">
         <v>350</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>10657</v>
       </c>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D353">
         <v>351</v>
       </c>
@@ -16871,7 +16871,7 @@
         <v>10657</v>
       </c>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D354">
         <v>352</v>
       </c>
@@ -16879,10 +16879,10 @@
         <v>10666</v>
       </c>
       <c r="F354">
-        <v>10657</v>
-      </c>
-    </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10658</v>
+      </c>
+    </row>
+    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D355">
         <v>353</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>10658</v>
       </c>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D356">
         <v>354</v>
       </c>
@@ -16904,7 +16904,7 @@
         <v>10658</v>
       </c>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D357">
         <v>355</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>10658</v>
       </c>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D358">
         <v>356</v>
       </c>
@@ -16926,7 +16926,7 @@
         <v>10658</v>
       </c>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D359">
         <v>357</v>
       </c>
@@ -16934,10 +16934,10 @@
         <v>10666</v>
       </c>
       <c r="F359">
-        <v>10658</v>
-      </c>
-    </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10659</v>
+      </c>
+    </row>
+    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D360">
         <v>358</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>10659</v>
       </c>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D361">
         <v>359</v>
       </c>
@@ -16959,7 +16959,7 @@
         <v>10659</v>
       </c>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D362">
         <v>360</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>10659</v>
       </c>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D363">
         <v>361</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>10659</v>
       </c>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D364">
         <v>362</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>10659</v>
       </c>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D365">
         <v>363</v>
       </c>
@@ -17000,10 +17000,10 @@
         <v>10666</v>
       </c>
       <c r="F365">
-        <v>10659</v>
-      </c>
-    </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10660</v>
+      </c>
+    </row>
+    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D366">
         <v>364</v>
       </c>
@@ -17011,7 +17011,7 @@
         <v>10660</v>
       </c>
     </row>
-    <row r="367" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D367">
         <v>365</v>
       </c>
@@ -17019,7 +17019,7 @@
         <v>10660</v>
       </c>
     </row>
-    <row r="368" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D368">
         <v>366</v>
       </c>
@@ -17027,7 +17027,7 @@
         <v>10660</v>
       </c>
     </row>
-    <row r="369" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D369">
         <v>367</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>10660</v>
       </c>
     </row>
-    <row r="370" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D370">
         <v>368</v>
       </c>
@@ -17043,15 +17043,15 @@
         <v>10660</v>
       </c>
     </row>
-    <row r="371" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D371">
         <v>369</v>
       </c>
       <c r="F371">
-        <v>10660</v>
-      </c>
-    </row>
-    <row r="372" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10661</v>
+      </c>
+    </row>
+    <row r="372" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D372">
         <v>370</v>
       </c>
@@ -17059,7 +17059,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="373" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D373">
         <v>371</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="374" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D374">
         <v>372</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="375" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D375">
         <v>373</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="376" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D376">
         <v>374</v>
       </c>
@@ -17091,7 +17091,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="377" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D377">
         <v>375</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="378" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D378">
         <v>376</v>
       </c>
@@ -17107,15 +17107,15 @@
         <v>10661</v>
       </c>
     </row>
-    <row r="379" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D379">
         <v>377</v>
       </c>
       <c r="F379">
-        <v>10661</v>
-      </c>
-    </row>
-    <row r="380" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10662</v>
+      </c>
+    </row>
+    <row r="380" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D380">
         <v>378</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="381" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D381">
         <v>379</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="382" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D382">
         <v>380</v>
       </c>
@@ -17139,7 +17139,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="383" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D383">
         <v>381</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="384" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D384">
         <v>382</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="385" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D385">
         <v>383</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="386" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D386">
         <v>384</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="387" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D387">
         <v>385</v>
       </c>
@@ -17179,7 +17179,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="388" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D388">
         <v>386</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>10662</v>
       </c>
     </row>
-    <row r="389" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D389">
         <v>387</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="390" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D390">
         <v>388</v>
       </c>
@@ -17203,7 +17203,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="391" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D391">
         <v>389</v>
       </c>
@@ -17211,7 +17211,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="392" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D392">
         <v>390</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="393" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D393">
         <v>391</v>
       </c>
@@ -17227,7 +17227,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="394" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D394">
         <v>392</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="395" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D395">
         <v>393</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="396" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D396">
         <v>394</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="397" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D397">
         <v>395</v>
       </c>
@@ -17259,7 +17259,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="398" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D398">
         <v>396</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="399" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D399">
         <v>397</v>
       </c>
@@ -17275,7 +17275,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="400" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D400">
         <v>398</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="401" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D401">
         <v>399</v>
       </c>
@@ -17291,15 +17291,15 @@
         <v>10663</v>
       </c>
     </row>
-    <row r="402" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D402">
         <v>400</v>
       </c>
       <c r="F402">
-        <v>10663</v>
-      </c>
-    </row>
-    <row r="403" spans="4:6" x14ac:dyDescent="0.35">
+        <v>10664</v>
+      </c>
+    </row>
+    <row r="403" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D403">
         <v>401</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="404" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D404">
         <v>402</v>
       </c>
@@ -17315,7 +17315,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="405" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D405">
         <v>403</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="406" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D406">
         <v>404</v>
       </c>
@@ -17331,7 +17331,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="407" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D407">
         <v>405</v>
       </c>
@@ -17339,7 +17339,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="408" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D408">
         <v>406</v>
       </c>
@@ -17347,7 +17347,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="409" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D409">
         <v>407</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>10664</v>
       </c>
     </row>
-    <row r="410" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D410">
         <v>408</v>
       </c>
